--- a/sample_data_for_development.xlsx
+++ b/sample_data_for_development.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gk/Python-AI-Data-Analyst/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gk/Python-AI-Data-Analyst/Analyst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DD3CB3-5738-BA4F-9B10-7518124245A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8B1CD6-9103-324A-8E51-88C1BCAAF440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <t>Sales</t>
   </si>
   <si>
-    <t>Advertising_Budget</t>
+    <t>Advertising Budget</t>
   </si>
 </sst>
 </file>
@@ -50,6 +50,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -397,7 +398,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
